--- a/biology/Zoologie/Callicore_felderi/Callicore_felderi.xlsx
+++ b/biology/Zoologie/Callicore_felderi/Callicore_felderi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callicore felderi est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Biblidinae et du genre Callicore.
 </t>
@@ -511,14 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Callicore felderi a été décrit par William Chapman Hewitson en 1864 sous le nom initial de Catagramma felderi[1].
-Noms vernaculaires
- Callicore felderi se nomme 8-spot Numberwing en anglais[2].
-Sous-espèces
- Callicore felderi felderi présent en Équateur et au Pérou.
- Callicore felderi cajetani (Guenée, 1872)présent au Pérou[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore felderi a été décrit par William Chapman Hewitson en 1864 sous le nom initial de Catagramma felderi.
+</t>
         </is>
       </c>
     </row>
@@ -543,10 +553,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Callicore felderi se nomme 8-spot Numberwing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Callicore_felderi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_felderi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Callicore felderi felderi présent en Équateur et au Pérou.
+ Callicore felderi cajetani (Guenée, 1872)présent au Pérou.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Callicore_felderi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_felderi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Callicore felderi est un papillon au dessus de couleur marron à noir avec aux ailes antérieures une flaque rouge.
 Le revers des ailes antérieures présente la même couleur rouge et une bande noire qui sépare l'apex ocre alors que les ailes postérieures sont de couleur ocre ornementées de veines et de lignes marron et barrées d'une bade marron centrée d'une ligne de huit points de couleur bleue.
@@ -554,65 +640,139 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Callicore_felderi</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Callicore_felderi</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Callicore_felderi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_felderi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Callicore_felderi</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Callicore_felderi</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Callicore_felderi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_felderi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callicore felderi est présent en Équateur et au Pérou[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore felderi est présent en Équateur et au Pérou.
 Sur les autres projets Wikimedia :
 Callicore felderi, sur Wikimedia CommonsCallicore felderi, sur Wikispecies
-Biotope
-Callicore felderi réside dans la forêt tropicale humide du versant est des Andes[2].
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Callicore_felderi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_felderi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore felderi réside dans la forêt tropicale humide du versant est des Andes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Callicore_felderi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_felderi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
